--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/32_Eskişehir_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/32_Eskişehir_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6BFD5C-5418-4E14-ADD3-69DFD3265BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB2FE3B9-EBA3-4D9A-AC5E-469CAA10BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{ACD63B9C-D11B-4B27-945B-1CBE10FD4182}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{A6EDA0E7-0441-479C-BE4B-7DF8560C1E21}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -918,14 +918,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{27208C25-0D2F-4BE4-9A97-6827C7F41E49}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7938B310-13D9-4D8A-8505-E855E79C6CD6}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{633AA0BD-BDD9-4FC0-98A0-35672B254711}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{0F7F3020-BBEA-44D9-88F4-454826C8EE37}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{327D543D-FF30-4D3A-965F-21A6E69F5305}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{165C0D5C-D861-4580-A8A2-FBB93CDDB8C5}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{43822A84-50CF-4915-8C37-703BAF2FF520}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CC699ABB-6C8A-451A-8171-D5C434F2A648}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AF866142-ED02-4FB5-9C50-36978B073AA5}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ABDE29C3-2A9B-4B51-B8F9-8532D3A69D2B}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{16BE9F4A-111D-44B4-9842-BC2E7DA5DE64}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{3F4D8981-FE92-4F5B-A63C-BF8D9DAF3EC9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F3F03A3C-D893-45D6-9397-CAF6C1879231}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D8BFBFBD-9DEF-4405-AD1B-4996A15315FE}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{3124A996-36D0-4383-B80E-EA5CC2585DEB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{268733E9-F207-41A8-8566-FAB3E9766506}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1295,7 +1295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C550C1F-E360-4604-8950-9D6966D13955}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3968A8-675A-48D7-99F1-9621B8F58517}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2585,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE9C0D5-E5EB-49D0-9497-07DFECC7A7DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA8EB8C-94F4-4EC7-88B3-BDCCB66B5467}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3838,7 +3838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FC99FC-98E2-4208-A716-DC2FC3A5493F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC252D1B-B63B-4CC2-BC29-216E89A9AC07}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5087,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C69A7-33B6-461E-9892-2EDA245AE533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A45E9F8-1917-440A-B2E8-6F09119547A3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6326,7 +6326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9476A33F-AB1C-41B2-8069-977C9BBC81E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551804F-A751-4FB5-B384-F7D6879E7AEB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7617,7 +7617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362A8AA4-FADE-4A50-A2E7-7629ED6A57C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF06855-1301-4297-809B-EF43B6D9282A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8908,7 +8908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3502C0E6-FBA2-4C4A-8345-DB82F4DFFF09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E5A0A4-B630-4538-B85E-3330924FB1CA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10199,7 +10199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFF8785-7E18-40F0-B9F3-FA71D73D5C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736C6771-D8B7-4A23-B0F4-6B05F5D46C8C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11490,7 +11490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C7928D-A81F-401B-9BE8-DBFF1DBFD8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0E0F46-3CC1-4AB6-95E3-659465F287AB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12781,7 +12781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6761C743-3E8D-46DC-90C2-812157F1EC79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0787AB-3A6E-48AA-815E-261706BBB60D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14060,7 +14060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7A16C9-2181-4CB8-9752-3D4CAD936A7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166A876B-0C83-40F9-AF53-D5BCA95F8EF0}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15339,7 +15339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19100CE4-1CDB-4A99-8540-0A1CC422283C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E3D53B-3518-4782-A392-61E87131E5BE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
